--- a/schedules/schedule_teachers-grouped.xlsx
+++ b/schedules/schedule_teachers-grouped.xlsx
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="13" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="N11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O11" s="13" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="X11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="13" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="13" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="X15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="13" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="N17" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O17" s="17" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="S17" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T17" s="17" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="N7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="13" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="X14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y14" s="15" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="13" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="X15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="13" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="S16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="13" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="X16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="13" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="X20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="13" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="15" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="N21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O21" s="15" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="S21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="15" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="X21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y21" s="15" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" s="15" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="N22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O22" s="15" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="X22" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="15" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="S23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" s="15" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="X24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y24" s="15" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="X27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y27" s="15" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="S28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T28" s="13" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="X28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y28" s="13" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="N29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O29" s="13" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="X29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" s="13" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" s="13" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="X34" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y34" s="13" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="N35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O35" s="15" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="S35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T35" s="15" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="X35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y35" s="15" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="D36" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" s="15" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="D37" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E37" s="15" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="S38" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T38" s="15" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="D40" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" s="15" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" s="13" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="I41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" s="13" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="N41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O41" s="13" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="S41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T41" s="13" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="X41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y41" s="13" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E42" s="13" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="S42" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T42" s="13" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="X42" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y42" s="13" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="S43" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T43" s="13" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I44" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J44" s="13" t="inlineStr">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="D45" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" s="15" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="N45" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O45" s="15" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="S45" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T45" s="15" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="X45" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y45" s="15" t="inlineStr">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D46" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" s="15" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="S47" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T47" s="15" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="S48" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T48" s="15" t="inlineStr">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="S49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T49" s="15" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="D50" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" s="13" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="N50" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O50" s="13" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="S50" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T50" s="13" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="S51" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T51" s="20" t="inlineStr">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="15" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="15" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="D16" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="20" t="inlineStr">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="13" t="inlineStr">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="15" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="N13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="13" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="X13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="13" t="inlineStr">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="X14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y14" s="13" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="15" t="inlineStr">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="N17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O17" s="15" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="I20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" s="13" t="inlineStr">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="N20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O20" s="13" t="inlineStr">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="X20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="13" t="inlineStr">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="13" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="S21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="13" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="S24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="13" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="N25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O25" s="15" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="S25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T25" s="15" t="inlineStr">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="X25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y25" s="15" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" s="15" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="X26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y26" s="15" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="15" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="N27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O27" s="15" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="S27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T27" s="15" t="inlineStr">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="D29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="S29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T29" s="13" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="X29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" s="13" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="I30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" s="13" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="N30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O30" s="13" t="inlineStr">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="X30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y30" s="13" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="N31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O31" s="13" t="inlineStr">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" s="15" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="S33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T33" s="15" t="inlineStr">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="D34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" s="15" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" s="15" t="inlineStr">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="D35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" s="15" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" s="15" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" s="13" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" s="13" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="S36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T36" s="13" t="inlineStr">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="X36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y36" s="13" t="inlineStr">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="I38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" s="13" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="X39" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y39" s="15" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="D4" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="20" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -13738,7 +13738,7 @@
       </c>
       <c r="I15" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="17" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="13" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="X14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y14" s="15" t="inlineStr">
@@ -14547,7 +14547,7 @@
       </c>
       <c r="X15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="15" t="inlineStr">
@@ -14600,7 +14600,7 @@
       </c>
       <c r="X16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="13" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="X17" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="20" t="inlineStr">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -15140,7 +15140,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="N6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="15" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="S6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="15" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -15354,7 +15354,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="15" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="X11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="13" t="inlineStr">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -15924,7 +15924,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="X15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="13" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="13" t="inlineStr">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="X17" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="17" t="inlineStr">
@@ -16551,7 +16551,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -16622,7 +16622,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -16767,7 +16767,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -16805,7 +16805,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="15" t="inlineStr">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="13" t="inlineStr">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="X12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="13" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -17390,7 +17390,7 @@
       </c>
       <c r="N15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="13" t="inlineStr">
@@ -17413,7 +17413,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="S16" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="17" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -17870,7 +17870,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="15" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -17989,7 +17989,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -18035,7 +18035,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -18180,7 +18180,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -18203,7 +18203,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -18519,7 +18519,7 @@
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="17" t="inlineStr">
@@ -18839,7 +18839,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -18867,7 +18867,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -18890,7 +18890,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -18913,7 +18913,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="15" t="inlineStr">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -19074,7 +19074,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -19122,7 +19122,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="13" t="inlineStr">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="13" t="inlineStr">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="N7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="13" t="inlineStr">
@@ -19191,7 +19191,7 @@
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="13" t="inlineStr">
@@ -19214,7 +19214,7 @@
       </c>
       <c r="X7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="13" t="inlineStr">
@@ -19300,7 +19300,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="13" t="inlineStr">
@@ -19574,7 +19574,7 @@
       </c>
       <c r="X11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="13" t="inlineStr">
@@ -19660,7 +19660,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -19683,7 +19683,7 @@
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="15" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -19840,7 +19840,7 @@
       </c>
       <c r="D15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -19863,7 +19863,7 @@
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="X15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="13" t="inlineStr">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="I17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="13" t="inlineStr">
@@ -20117,7 +20117,7 @@
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="15" t="inlineStr">
@@ -20683,7 +20683,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -20912,7 +20912,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="D9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -21220,7 +21220,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -21345,7 +21345,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
@@ -21456,7 +21456,7 @@
       </c>
       <c r="X13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="13" t="inlineStr">
@@ -21617,7 +21617,7 @@
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="15" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
@@ -21795,7 +21795,7 @@
       </c>
       <c r="X16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="15" t="inlineStr">
@@ -21925,7 +21925,7 @@
       </c>
       <c r="N18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="13" t="inlineStr">
@@ -22163,7 +22163,7 @@
       </c>
       <c r="S21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="15" t="inlineStr">
@@ -22290,7 +22290,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -22452,7 +22452,7 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
@@ -22881,7 +22881,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -22927,7 +22927,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -23098,7 +23098,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -23347,7 +23347,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="N8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="15" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="S8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="15" t="inlineStr">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="15" t="inlineStr">
@@ -23666,7 +23666,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -23760,7 +23760,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -23862,7 +23862,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
@@ -23962,7 +23962,7 @@
       </c>
       <c r="N13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="13" t="inlineStr">
@@ -24008,7 +24008,7 @@
       </c>
       <c r="X13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="13" t="inlineStr">
@@ -24044,7 +24044,7 @@
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -24113,7 +24113,7 @@
       </c>
       <c r="X14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y14" s="13" t="inlineStr">
@@ -24195,7 +24195,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -24254,7 +24254,7 @@
       </c>
       <c r="I16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="13" t="inlineStr">
@@ -24277,7 +24277,7 @@
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="13" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" s="15" t="inlineStr">
@@ -24489,7 +24489,7 @@
       </c>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
@@ -24512,7 +24512,7 @@
       </c>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="X18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="15" t="inlineStr">
@@ -24566,7 +24566,7 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -24589,7 +24589,7 @@
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="15" t="inlineStr">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="N19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="15" t="inlineStr">
@@ -24635,7 +24635,7 @@
       </c>
       <c r="S19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T19" s="15" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="X19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y19" s="15" t="inlineStr">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" s="15" t="inlineStr">
@@ -24712,7 +24712,7 @@
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" s="15" t="inlineStr">
@@ -24758,7 +24758,7 @@
       </c>
       <c r="S20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T20" s="15" t="inlineStr">
@@ -24849,7 +24849,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="S22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T22" s="13" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="X22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="13" t="inlineStr">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="I23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" s="13" t="inlineStr">
@@ -25018,7 +25018,7 @@
       </c>
       <c r="N23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O23" s="13" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="S23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" s="13" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="X23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y23" s="13" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
@@ -25118,7 +25118,7 @@
       </c>
       <c r="I24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="N24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O24" s="13" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="S24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="13" t="inlineStr">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="N25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O25" s="13" t="inlineStr">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="S25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T25" s="13" t="inlineStr">
@@ -25289,7 +25289,7 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="N26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O26" s="15" t="inlineStr">
@@ -25358,7 +25358,7 @@
       </c>
       <c r="S26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T26" s="15" t="inlineStr">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="X26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y26" s="15" t="inlineStr">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="I27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" s="15" t="inlineStr">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="N27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O27" s="15" t="inlineStr">
@@ -25481,7 +25481,7 @@
       </c>
       <c r="S27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T27" s="15" t="inlineStr">
@@ -25504,7 +25504,7 @@
       </c>
       <c r="X27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y27" s="15" t="inlineStr">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="D28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" s="15" t="inlineStr">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="I28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" s="15" t="inlineStr">
@@ -25677,7 +25677,7 @@
       </c>
       <c r="D30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" s="13" t="inlineStr">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="S30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T30" s="13" t="inlineStr">
@@ -25769,7 +25769,7 @@
       </c>
       <c r="X30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y30" s="13" t="inlineStr">
@@ -25800,7 +25800,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="I31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" s="13" t="inlineStr">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="N31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O31" s="13" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="X31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y31" s="13" t="inlineStr">
@@ -25905,7 +25905,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -25951,7 +25951,7 @@
       </c>
       <c r="N32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O32" s="13" t="inlineStr">
@@ -25979,7 +25979,7 @@
       </c>
       <c r="X32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y32" s="13" t="inlineStr">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="D33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" s="15" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="S33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T33" s="15" t="inlineStr">
@@ -26104,7 +26104,7 @@
       </c>
       <c r="X33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y33" s="15" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="D34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" s="15" t="inlineStr">
@@ -26158,7 +26158,7 @@
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" s="15" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="N34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O34" s="15" t="inlineStr">
@@ -26204,7 +26204,7 @@
       </c>
       <c r="S34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T34" s="15" t="inlineStr">
@@ -26250,7 +26250,7 @@
       </c>
       <c r="N35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O35" s="15" t="inlineStr">
@@ -26293,7 +26293,7 @@
       </c>
       <c r="D36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" s="13" t="inlineStr">
@@ -26362,7 +26362,7 @@
       </c>
       <c r="S36" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T36" s="13" t="inlineStr">
@@ -26408,7 +26408,7 @@
       </c>
       <c r="N37" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O37" s="13" t="inlineStr">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="N38" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O38" s="17" t="inlineStr">
@@ -27370,7 +27370,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -27408,7 +27408,7 @@
       </c>
       <c r="D11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="15" t="inlineStr">
@@ -28073,7 +28073,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -28225,7 +28225,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -28273,7 +28273,7 @@
       </c>
       <c r="S5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -28405,7 +28405,7 @@
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="13" t="inlineStr">
@@ -28524,7 +28524,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -28787,7 +28787,7 @@
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="D13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -29012,7 +29012,7 @@
       </c>
       <c r="N13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="13" t="inlineStr">
@@ -29114,7 +29114,7 @@
       </c>
       <c r="I14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="13" t="inlineStr">
@@ -29223,7 +29223,7 @@
       </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="13" t="inlineStr">
@@ -29271,7 +29271,7 @@
       </c>
       <c r="S15" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="S16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="13" t="inlineStr">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
@@ -29560,7 +29560,7 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="15" t="inlineStr">
@@ -29583,7 +29583,7 @@
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="15" t="inlineStr">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" s="15" t="inlineStr">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="S20" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T20" s="15" t="inlineStr">
@@ -29789,7 +29789,7 @@
       </c>
       <c r="S21" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="15" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="N23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O23" s="13" t="inlineStr">
@@ -30103,7 +30103,7 @@
       </c>
       <c r="X24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y24" s="13" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="13" t="inlineStr">
@@ -30161,7 +30161,7 @@
       </c>
       <c r="I25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" s="13" t="inlineStr">
@@ -30189,7 +30189,7 @@
       </c>
       <c r="S25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T25" s="13" t="inlineStr">
@@ -30278,7 +30278,7 @@
       </c>
       <c r="S26" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T26" s="13" t="inlineStr">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="X28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y28" s="15" t="inlineStr">
@@ -30630,7 +30630,7 @@
       </c>
       <c r="I30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" s="15" t="inlineStr">
@@ -30658,7 +30658,7 @@
       </c>
       <c r="S30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T30" s="15" t="inlineStr">
@@ -30918,7 +30918,7 @@
       </c>
       <c r="X33" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y33" s="13" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="I34" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" s="13" t="inlineStr">
@@ -31024,7 +31024,7 @@
       </c>
       <c r="S34" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T34" s="13" t="inlineStr">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" s="15" t="inlineStr">
@@ -31209,7 +31209,7 @@
       </c>
       <c r="X36" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y36" s="15" t="inlineStr">
